--- a/diagrams/bdrelacionadas.xlsx
+++ b/diagrams/bdrelacionadas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zonapagos-my.sharepoint.com/personal/svasquez_zonavirtual_com_co/Documents/Personal/ITM/BDAVANZADAS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITM\BDAVANZADAS\Repositorio\bet_itm_assignment\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="14_{A4F9528D-5A76-4EFE-B879-D018F56BD73E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E6776F29-55A0-4EF2-8E8D-18197115B2E7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EDD157-962B-4B8B-98FB-AFC76B4F59CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{16A54CA9-296D-4623-BA6E-D4D5AADD1692}"/>
   </bookViews>
@@ -579,10 +579,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5524,106 +5524,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>697230</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="90" name="Conector recto 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{658C16FE-9540-4F09-B296-2615F876F285}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8256270" y="1501140"/>
-          <a:ext cx="91440" cy="53340"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>674370</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="95" name="Conector recto 94">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE59D049-ED10-4B35-A7F6-F159B80B3F34}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8233410" y="1562100"/>
-          <a:ext cx="114300" cy="34290"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6782,7 +6682,7 @@
   <dimension ref="B2:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6883,7 +6783,7 @@
       <c r="D6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -6934,7 +6834,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>120</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -6951,7 +6851,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>121</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -6968,7 +6868,7 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>122</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -6994,10 +6894,10 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>128</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -7020,16 +6920,16 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>129</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>127</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -7046,10 +6946,10 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -7072,13 +6972,13 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="11" t="s">
         <v>130</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -7095,7 +6995,7 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -7442,20 +7342,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="J5" s="11" t="s">
+      <c r="E5" s="12"/>
+      <c r="J5" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="K5" s="11"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -7495,6 +7395,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007C7BC51C6935E24091EF0B914732203F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="0c86b061916a4edf5969eccf70c667b6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="71c32d65-301a-444d-ab8c-03b94330fe6c" xmlns:ns4="33cffe65-8a2d-4e1b-84ea-f2a734a98433" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5a93e4c052d79abae0fd6ae4db933211" ns3:_="" ns4:_="">
     <xsd:import namespace="71c32d65-301a-444d-ab8c-03b94330fe6c"/>
@@ -7697,22 +7612,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{161729E1-CF4C-47C3-80E6-567C9784CB01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56784C18-FCB8-4E15-8090-4487949A38C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B376350-3CA7-4FF1-919E-A559410F3184}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7729,21 +7646,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56784C18-FCB8-4E15-8090-4487949A38C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{161729E1-CF4C-47C3-80E6-567C9784CB01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/diagrams/bdrelacionadas.xlsx
+++ b/diagrams/bdrelacionadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITM\BDAVANZADAS\Repositorio\bet_itm_assignment\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EDD157-962B-4B8B-98FB-AFC76B4F59CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4913ECC7-B4E8-4C99-AE2D-58FF7AB3FB05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{16A54CA9-296D-4623-BA6E-D4D5AADD1692}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Gráfico1" sheetId="3" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="141">
   <si>
     <t>usuarios</t>
   </si>
@@ -149,15 +150,6 @@
   </si>
   <si>
     <t>id_legales</t>
-  </si>
-  <si>
-    <t>diario</t>
-  </si>
-  <si>
-    <t>semanal</t>
-  </si>
-  <si>
-    <t>mensual</t>
   </si>
   <si>
     <t>preferencias</t>
@@ -456,6 +448,27 @@
   </si>
   <si>
     <t>porcentaje_menos_apostado</t>
+  </si>
+  <si>
+    <t>montodiario</t>
+  </si>
+  <si>
+    <t>montosemanal</t>
+  </si>
+  <si>
+    <t>montomensual</t>
+  </si>
+  <si>
+    <t>perdidadiario</t>
+  </si>
+  <si>
+    <t>perdidasemanal</t>
+  </si>
+  <si>
+    <t>perdidamensual</t>
+  </si>
+  <si>
+    <t>fecha_ultima_modificacion</t>
   </si>
 </sst>
 </file>
@@ -495,7 +508,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,6 +530,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -583,6 +602,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1472,7 +1492,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{012E1C8E-BA30-4FC7-BD14-9DF5F9B0D97D}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1483,7 +1503,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662276" cy="6279931"/>
+    <xdr:ext cx="8654815" cy="6274741"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -4383,9 +4403,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
+      <xdr:colOff>619760</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4401,7 +4421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12566650" y="3556000"/>
-          <a:ext cx="11430" cy="2245360"/>
+          <a:ext cx="21590" cy="2570480"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4527,15 +4547,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>567690</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4550,8 +4570,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12546330" y="5775960"/>
-          <a:ext cx="392430" cy="3810"/>
+          <a:off x="12546330" y="6111240"/>
+          <a:ext cx="397510" cy="3810"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6682,7 +6702,7 @@
   <dimension ref="B2:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6700,25 +6720,25 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>3</v>
@@ -6742,7 +6762,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H4" s="4"/>
       <c r="J4" s="1" t="s">
@@ -6757,13 +6777,13 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H5" s="4"/>
       <c r="J5" s="1" t="s">
@@ -6778,13 +6798,13 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>10</v>
@@ -6798,13 +6818,13 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>13</v>
@@ -6815,16 +6835,16 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>15</v>
@@ -6835,13 +6855,13 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>3</v>
@@ -6852,16 +6872,16 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>17</v>
@@ -6869,13 +6889,13 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>37</v>
@@ -6883,28 +6903,28 @@
       <c r="J11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P11" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>22</v>
@@ -6921,16 +6941,16 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>127</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>23</v>
@@ -6947,13 +6967,13 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>12</v>
@@ -6973,13 +6993,13 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>31</v>
@@ -6996,10 +7016,10 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>32</v>
@@ -7010,21 +7030,21 @@
         <v>12</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D18" s="2" t="s">
-        <v>56</v>
+      <c r="D18" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>3</v>
@@ -7039,7 +7059,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>37</v>
@@ -7057,10 +7077,10 @@
         <v>26</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>38</v>
@@ -7075,13 +7095,13 @@
         <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>37</v>
@@ -7090,31 +7110,31 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="F22" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>39</v>
+      <c r="L22" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D23" s="2" t="s">
-        <v>96</v>
+      <c r="D23" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="N23" s="4"/>
     </row>
@@ -7123,28 +7143,28 @@
         <v>3</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="N24" s="4"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="N25" s="4"/>
     </row>
@@ -7161,83 +7181,89 @@
       <c r="H26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>12</v>
+      <c r="L26" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
@@ -7245,68 +7271,74 @@
         <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>51</v>
+        <v>84</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D34" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J34" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="J34" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="L34" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D35" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D36" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J38" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
@@ -7343,43 +7375,43 @@
   <sheetData>
     <row r="2" spans="1:13" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G2" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H2" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E5" s="12"/>
       <c r="J5" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K5" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M9" s="6"/>
     </row>
@@ -7394,22 +7426,19 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E82A7D6-5B97-482C-8899-0D9E5FB446BD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007C7BC51C6935E24091EF0B914732203F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="0c86b061916a4edf5969eccf70c667b6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="71c32d65-301a-444d-ab8c-03b94330fe6c" xmlns:ns4="33cffe65-8a2d-4e1b-84ea-f2a734a98433" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5a93e4c052d79abae0fd6ae4db933211" ns3:_="" ns4:_="">
     <xsd:import namespace="71c32d65-301a-444d-ab8c-03b94330fe6c"/>
@@ -7612,24 +7641,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{161729E1-CF4C-47C3-80E6-567C9784CB01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56784C18-FCB8-4E15-8090-4487949A38C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B376350-3CA7-4FF1-919E-A559410F3184}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7646,4 +7673,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56784C18-FCB8-4E15-8090-4487949A38C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{161729E1-CF4C-47C3-80E6-567C9784CB01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/diagrams/bdrelacionadas.xlsx
+++ b/diagrams/bdrelacionadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITM\BDAVANZADAS\Repositorio\bet_itm_assignment\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4913ECC7-B4E8-4C99-AE2D-58FF7AB3FB05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2AE6FD-2945-4BDD-8C8D-238F5625F84D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{16A54CA9-296D-4623-BA6E-D4D5AADD1692}"/>
+    <workbookView xWindow="18840" yWindow="2676" windowWidth="7500" windowHeight="6000" activeTab="1" xr2:uid="{16A54CA9-296D-4623-BA6E-D4D5AADD1692}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico1" sheetId="3" r:id="rId1"/>
@@ -6701,8 +6701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780A45B2-831B-4F5B-8807-F78F0F606349}">
   <dimension ref="B2:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7067,7 +7067,7 @@
       <c r="J19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="13" t="s">
         <v>34</v>
       </c>
       <c r="N19" s="5"/>

--- a/diagrams/bdrelacionadas.xlsx
+++ b/diagrams/bdrelacionadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITM\BDAVANZADAS\Repositorio\bet_itm_assignment\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2AE6FD-2945-4BDD-8C8D-238F5625F84D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B30F134-9DFC-43E2-9747-8081345B8D30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18840" yWindow="2676" windowWidth="7500" windowHeight="6000" activeTab="1" xr2:uid="{16A54CA9-296D-4623-BA6E-D4D5AADD1692}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{16A54CA9-296D-4623-BA6E-D4D5AADD1692}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico1" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="140">
   <si>
     <t>usuarios</t>
   </si>
@@ -237,9 +237,6 @@
   </si>
   <si>
     <t>fecha</t>
-  </si>
-  <si>
-    <t>hora</t>
   </si>
   <si>
     <t>opcion_equipo1</t>
@@ -6701,8 +6698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780A45B2-831B-4F5B-8807-F78F0F606349}">
   <dimension ref="B2:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6797,9 +6794,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>55</v>
       </c>
@@ -6818,13 +6813,13 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>13</v>
@@ -6835,13 +6830,13 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>54</v>
@@ -6855,13 +6850,13 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>3</v>
@@ -6872,13 +6867,13 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>57</v>
@@ -6889,13 +6884,13 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>37</v>
@@ -6915,13 +6910,13 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>60</v>
@@ -6941,16 +6936,16 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>23</v>
@@ -6967,13 +6962,13 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>12</v>
@@ -6993,13 +6988,13 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>31</v>
@@ -7019,7 +7014,7 @@
         <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>32</v>
@@ -7030,7 +7025,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>39</v>
@@ -7044,7 +7039,7 @@
         <v>53</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>3</v>
@@ -7059,7 +7054,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>37</v>
@@ -7077,7 +7072,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>41</v>
@@ -7095,13 +7090,13 @@
         <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>37</v>
@@ -7110,7 +7105,7 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="F22" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>43</v>
@@ -7119,13 +7114,13 @@
         <v>12</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D23" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>12</v>
@@ -7134,7 +7129,7 @@
         <v>46</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N23" s="4"/>
     </row>
@@ -7146,25 +7141,25 @@
         <v>47</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N24" s="4"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N25" s="4"/>
     </row>
@@ -7182,40 +7177,40 @@
         <v>12</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>40</v>
@@ -7223,16 +7218,16 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>12</v>
@@ -7240,7 +7235,7 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -7249,21 +7244,21 @@
         <v>45</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
@@ -7271,13 +7266,13 @@
         <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L33" s="13" t="s">
         <v>44</v>
@@ -7285,13 +7280,13 @@
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>3</v>
@@ -7299,13 +7294,13 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D35" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>45</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>48</v>
@@ -7313,7 +7308,7 @@
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D36" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>12</v>
@@ -7330,7 +7325,7 @@
         <v>45</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>12</v>
@@ -7338,7 +7333,7 @@
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J38" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
@@ -7375,43 +7370,43 @@
   <sheetData>
     <row r="2" spans="1:13" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G2" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H2" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="12"/>
       <c r="J5" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K5" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M9" s="6"/>
     </row>

--- a/diagrams/bdrelacionadas.xlsx
+++ b/diagrams/bdrelacionadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITM\BDAVANZADAS\Repositorio\bet_itm_assignment\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B30F134-9DFC-43E2-9747-8081345B8D30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B19A22-39C8-4033-9D75-0CDF454C51A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{16A54CA9-296D-4623-BA6E-D4D5AADD1692}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" activeTab="1" xr2:uid="{16A54CA9-296D-4623-BA6E-D4D5AADD1692}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico1" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="144">
   <si>
     <t>usuarios</t>
   </si>
@@ -466,6 +466,18 @@
   </si>
   <si>
     <t>fecha_ultima_modificacion</t>
+  </si>
+  <si>
+    <t>sesiones</t>
+  </si>
+  <si>
+    <t>idusuario</t>
+  </si>
+  <si>
+    <t>fecha_inicio_sesion</t>
+  </si>
+  <si>
+    <t>IP</t>
   </si>
 </sst>
 </file>
@@ -596,10 +608,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6699,7 +6711,7 @@
   <dimension ref="B2:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="N22" sqref="N22:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6711,7 +6723,7 @@
     <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" customWidth="1"/>
     <col min="16" max="16" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6720,13 +6732,13 @@
         <v>63</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6898,13 +6910,13 @@
       <c r="J11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7035,7 +7047,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>53</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -7062,7 +7074,7 @@
       <c r="J19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="N19" s="5"/>
@@ -7101,7 +7113,9 @@
       <c r="L21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N21" s="4"/>
+      <c r="N21" s="12" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="F22" s="1" t="s">
@@ -7116,10 +7130,12 @@
       <c r="L22" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="N22" s="4"/>
+      <c r="N22" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>92</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -7131,7 +7147,9 @@
       <c r="L23" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N23" s="4"/>
+      <c r="N23" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D24" s="1" t="s">
@@ -7143,7 +7161,9 @@
       <c r="L24" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="N24" s="4"/>
+      <c r="N24" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
@@ -7161,7 +7181,9 @@
       <c r="L25" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="N25" s="4"/>
+      <c r="N25" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
@@ -7179,6 +7201,9 @@
       <c r="L26" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="N26" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
@@ -7190,6 +7215,9 @@
       <c r="L27" s="3" t="s">
         <v>137</v>
       </c>
+      <c r="N27" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
@@ -7274,7 +7302,7 @@
       <c r="H33" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L33" s="13" t="s">
+      <c r="L33" s="12" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7285,7 +7313,7 @@
       <c r="H34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J34" s="13" t="s">
+      <c r="J34" s="12" t="s">
         <v>81</v>
       </c>
       <c r="L34" s="1" t="s">
@@ -7369,20 +7397,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="5" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="J5" s="12" t="s">
+      <c r="E5" s="13"/>
+      <c r="J5" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="K5" s="12"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="9" spans="1:13" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -7434,6 +7462,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007C7BC51C6935E24091EF0B914732203F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="0c86b061916a4edf5969eccf70c667b6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="71c32d65-301a-444d-ab8c-03b94330fe6c" xmlns:ns4="33cffe65-8a2d-4e1b-84ea-f2a734a98433" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5a93e4c052d79abae0fd6ae4db933211" ns3:_="" ns4:_="">
     <xsd:import namespace="71c32d65-301a-444d-ab8c-03b94330fe6c"/>
@@ -7636,22 +7679,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{161729E1-CF4C-47C3-80E6-567C9784CB01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56784C18-FCB8-4E15-8090-4487949A38C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B376350-3CA7-4FF1-919E-A559410F3184}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7668,21 +7713,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56784C18-FCB8-4E15-8090-4487949A38C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{161729E1-CF4C-47C3-80E6-567C9784CB01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/diagrams/bdrelacionadas.xlsx
+++ b/diagrams/bdrelacionadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITM\BDAVANZADAS\Repositorio\bet_itm_assignment\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B19A22-39C8-4033-9D75-0CDF454C51A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F33C004C-F036-415F-B64C-304AEB817B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" activeTab="1" xr2:uid="{16A54CA9-296D-4623-BA6E-D4D5AADD1692}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Hoja3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="143">
   <si>
     <t>usuarios</t>
   </si>
@@ -469,9 +470,6 @@
   </si>
   <si>
     <t>sesiones</t>
-  </si>
-  <si>
-    <t>idusuario</t>
   </si>
   <si>
     <t>fecha_inicio_sesion</t>
@@ -6710,8 +6708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780A45B2-831B-4F5B-8807-F78F0F606349}">
   <dimension ref="B2:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22:N27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7148,7 +7146,7 @@
         <v>133</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
@@ -7162,7 +7160,7 @@
         <v>134</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
@@ -7182,7 +7180,7 @@
         <v>135</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
@@ -7296,8 +7294,8 @@
       <c r="D33" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>12</v>
+      <c r="F33" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>83</v>
@@ -7309,6 +7307,9 @@
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D34" s="1" t="s">
         <v>94</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>84</v>
